--- a/medicine/Mort/Cimetière_de_Notre-Sauveur/Cimetière_de_Notre-Sauveur.xlsx
+++ b/medicine/Mort/Cimetière_de_Notre-Sauveur/Cimetière_de_Notre-Sauveur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Notre-Sauveur</t>
+          <t>Cimetière_de_Notre-Sauveur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Notre-Sauveur (Vår Frelsers gravlund) est un cimetière du centre historique d'Oslo (à l'époque Christiania), fondé en 1808, après une famine et une épidémie de choléra. Il devient ensuite rapidement le cimetière des notabilités de la ville. Il rassemble les tombes de personnalités de la jeune histoire du royaume de Norvège. Une partie du cimetière est aujourd'hui monument protégé. La chapelle du cimetière est aujourd'hui une église orthodoxe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Notre-Sauveur</t>
+          <t>Cimetière_de_Notre-Sauveur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Tombes d'honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bjørnstjerne Bjørnson, poète
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Notre-Sauveur</t>
+          <t>Cimetière_de_Notre-Sauveur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Section ouest</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ole Jacob Broch, homme politique et savant
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Notre-Sauveur</t>
+          <t>Cimetière_de_Notre-Sauveur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Section sud</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ivar Aasen, poète et découvreur de la langue norvégienne
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Notre-Sauveur</t>
+          <t>Cimetière_de_Notre-Sauveur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +657,9 @@
           <t>Section est</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Peter Christen Asbjørnsen, écrivain et découvreur des contes norvégiens
@@ -661,7 +681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Notre-Sauveur</t>
+          <t>Cimetière_de_Notre-Sauveur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +699,9 @@
           <t>Section nord</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brynjulf Bergslien, sculpteur
